--- a/results/rest_tab.xlsx
+++ b/results/rest_tab.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Gene.name</t>
   </si>
@@ -20,9 +20,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -38,6 +35,12 @@
     <t>P.Value</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
@@ -50,19 +53,37 @@
     <t>3</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>RC = 33.76-1.14 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 34.2-1.06 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 35.13-1.06 x Cq</t>
+  </si>
+  <si>
+    <t>32.12</t>
+  </si>
+  <si>
+    <t>32.16</t>
+  </si>
+  <si>
+    <t>33.01</t>
+  </si>
+  <si>
+    <t>20.75</t>
+  </si>
+  <si>
+    <t>21.87</t>
+  </si>
+  <si>
+    <t>22.54</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>RC = 35.84-1.69 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 35.43-1.56 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 36.15-1.5 x Cq</t>
   </si>
 </sst>
 </file>
@@ -141,92 +162,104 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="n">
+        <v>-1.14</v>
+      </c>
       <c r="E2" t="n">
-        <v>-1.69</v>
+        <v>33.76</v>
       </c>
       <c r="F2" t="n">
-        <v>35.84</v>
+        <v>0.9832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9913</v>
-      </c>
-      <c r="H2" t="n">
         <v>0.0</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="n">
+        <v>-1.06</v>
+      </c>
       <c r="E3" t="n">
-        <v>-1.56</v>
+        <v>34.2</v>
       </c>
       <c r="F3" t="n">
-        <v>35.43</v>
+        <v>0.9733</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9708</v>
-      </c>
-      <c r="H3" t="n">
         <v>0.0</v>
       </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" t="n">
+        <v>-1.06</v>
+      </c>
       <c r="E4" t="n">
-        <v>-1.5</v>
+        <v>35.13</v>
       </c>
       <c r="F4" t="n">
-        <v>36.15</v>
+        <v>0.9899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9876</v>
-      </c>
-      <c r="H4" t="n">
         <v>0.0</v>
       </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/results/rest_tab.xlsx
+++ b/results/rest_tab.xlsx
@@ -44,43 +44,43 @@
     <t>Other</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>RC = 33.76-1.14 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 34.2-1.06 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 35.13-1.06 x Cq</t>
-  </si>
-  <si>
-    <t>32.12</t>
-  </si>
-  <si>
-    <t>32.16</t>
-  </si>
-  <si>
-    <t>33.01</t>
-  </si>
-  <si>
-    <t>20.75</t>
-  </si>
-  <si>
-    <t>21.87</t>
-  </si>
-  <si>
-    <t>22.54</t>
+    <t>Gns1</t>
+  </si>
+  <si>
+    <t>PBZ1</t>
+  </si>
+  <si>
+    <t>UBQ</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>RC = 36.55-1.16 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 35.83-1.17 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 34.24-1.14 x Cq</t>
+  </si>
+  <si>
+    <t>35.46</t>
+  </si>
+  <si>
+    <t>33.31</t>
+  </si>
+  <si>
+    <t>31.98</t>
+  </si>
+  <si>
+    <t>23.17</t>
+  </si>
+  <si>
+    <t>21.85</t>
+  </si>
+  <si>
+    <t>20.67</t>
   </si>
   <si>
     <t/>
@@ -177,13 +177,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.14</v>
+        <v>-1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>33.76</v>
+        <v>36.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9832</v>
+        <v>0.98</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -209,13 +209,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.06</v>
+        <v>-1.17</v>
       </c>
       <c r="E3" t="n">
-        <v>34.2</v>
+        <v>35.83</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9733</v>
+        <v>0.9704</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -241,13 +241,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.06</v>
+        <v>-1.14</v>
       </c>
       <c r="E4" t="n">
-        <v>35.13</v>
+        <v>34.24</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9899</v>
+        <v>0.984</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/results/rest_tab.xlsx
+++ b/results/rest_tab.xlsx
@@ -29,7 +29,7 @@
     <t>Intercept</t>
   </si>
   <si>
-    <t>R2.adj</t>
+    <t>R2</t>
   </si>
   <si>
     <t>P.Value</t>
@@ -44,43 +44,43 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Gns1</t>
-  </si>
-  <si>
-    <t>PBZ1</t>
+    <t>POX223</t>
+  </si>
+  <si>
+    <t>RBBI2</t>
   </si>
   <si>
     <t>UBQ</t>
   </si>
   <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
-    <t>RC = 36.55-1.16 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 35.83-1.17 x Cq</t>
-  </si>
-  <si>
-    <t>RC = 34.24-1.14 x Cq</t>
-  </si>
-  <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>33.31</t>
-  </si>
-  <si>
-    <t>31.98</t>
-  </si>
-  <si>
-    <t>23.17</t>
-  </si>
-  <si>
-    <t>21.85</t>
-  </si>
-  <si>
-    <t>20.67</t>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>RC = 34.3-0.96 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 34.95-0.87 x Cq</t>
+  </si>
+  <si>
+    <t>RC = 30.75-0.91 x Cq</t>
+  </si>
+  <si>
+    <t>33.70</t>
+  </si>
+  <si>
+    <t>37.83</t>
+  </si>
+  <si>
+    <t>31.72</t>
+  </si>
+  <si>
+    <t>22.88</t>
+  </si>
+  <si>
+    <t>25.88</t>
+  </si>
+  <si>
+    <t>20.52</t>
   </si>
   <si>
     <t/>
@@ -177,13 +177,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.16</v>
+        <v>-0.96</v>
       </c>
       <c r="E2" t="n">
-        <v>36.55</v>
+        <v>34.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.98</v>
+        <v>0.9973</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -209,13 +209,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.17</v>
+        <v>-0.87</v>
       </c>
       <c r="E3" t="n">
-        <v>35.83</v>
+        <v>34.95</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9704</v>
+        <v>0.9936</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -241,13 +241,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.14</v>
+        <v>-0.91</v>
       </c>
       <c r="E4" t="n">
-        <v>34.24</v>
+        <v>30.75</v>
       </c>
       <c r="F4" t="n">
-        <v>0.984</v>
+        <v>0.9903</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
